--- a/Project4284_A. J. Elias-Costa(2021).xlsx
+++ b/Project4284_A. J. Elias-Costa(2021).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7AB87E-F265-5E48-8B70-0B9D92DA0887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E3D4C4-1FBF-4D11-8357-A179127F96D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16455" yWindow="3510" windowWidth="15945" windowHeight="18375" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4284" sheetId="1" r:id="rId1"/>
@@ -222,55 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18406</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55216</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>773043</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57517</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ADFD5D-BF49-1947-B58B-492CD3ED1BDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10509710" y="331303"/>
-          <a:ext cx="10693768" cy="6683605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,17 +543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -624,7 +573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -635,7 +584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -657,7 +606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -668,7 +617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -679,7 +628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -690,7 +639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -701,7 +650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -712,7 +661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -721,7 +670,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -732,7 +681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -740,7 +689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -751,7 +700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -762,7 +711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -773,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -784,7 +733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -793,7 +742,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -802,7 +751,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -813,7 +762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -824,7 +773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -835,7 +784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -843,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -854,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -865,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -874,7 +823,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -885,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -899,6 +848,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>